--- a/mms_ssh_jquery/src/main/webapp/doc/db/sm_dept_db.xlsx
+++ b/mms_ssh_jquery/src/main/webapp/doc/db/sm_dept_db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="28080" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -306,13 +306,13 @@
     <t>最近一次修改人</t>
   </si>
   <si>
-    <t>默认字段1</t>
+    <t>部门负责人</t>
   </si>
   <si>
     <t>DEPT_DEFAULT1</t>
   </si>
   <si>
-    <t>默认隐藏字段1</t>
+    <t>部门负责人id</t>
   </si>
   <si>
     <t>12</t>
@@ -402,9 +402,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-409]dd/mmm/yy;@"/>
   </numFmts>
   <fonts count="34">
@@ -2272,8 +2272,8 @@
   <sheetPr/>
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
